--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Npy-Npy1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Npy-Npy1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.472578</v>
+        <v>0.4700283333333333</v>
       </c>
       <c r="H2">
-        <v>4.417734</v>
+        <v>1.410085</v>
       </c>
       <c r="I2">
-        <v>0.8199988566099823</v>
+        <v>0.1029504401632623</v>
       </c>
       <c r="J2">
-        <v>0.8199988566099823</v>
+        <v>0.1029504401632623</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.447701666666666</v>
+        <v>0.1289933333333333</v>
       </c>
       <c r="N2">
-        <v>4.343105</v>
+        <v>0.38698</v>
       </c>
       <c r="O2">
-        <v>0.03524716840424121</v>
+        <v>0.05394679539474087</v>
       </c>
       <c r="P2">
-        <v>0.05193928443244949</v>
+        <v>0.0787948288373843</v>
       </c>
       <c r="Q2">
-        <v>2.131853624896666</v>
+        <v>0.06063052147777777</v>
       </c>
       <c r="R2">
-        <v>19.18668262407</v>
+        <v>0.5456746933</v>
       </c>
       <c r="S2">
-        <v>0.02890263779021729</v>
+        <v>0.005553846331286022</v>
       </c>
       <c r="T2">
-        <v>0.04259015384774923</v>
+        <v>0.008111962311397623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.472578</v>
+        <v>0.4700283333333333</v>
       </c>
       <c r="H3">
-        <v>4.417734</v>
+        <v>1.410085</v>
       </c>
       <c r="I3">
-        <v>0.8199988566099823</v>
+        <v>0.1029504401632623</v>
       </c>
       <c r="J3">
-        <v>0.8199988566099823</v>
+        <v>0.1029504401632623</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>39.5996665</v>
+        <v>2.262128</v>
       </c>
       <c r="N3">
-        <v>79.199333</v>
+        <v>4.524256</v>
       </c>
       <c r="O3">
-        <v>0.9641324217655036</v>
+        <v>0.9460532046052591</v>
       </c>
       <c r="P3">
-        <v>0.9471464962388161</v>
+        <v>0.9212051711626156</v>
       </c>
       <c r="Q3">
-        <v>58.313597695237</v>
+        <v>1.063264253626667</v>
       </c>
       <c r="R3">
-        <v>349.881586171422</v>
+        <v>6.37958552176</v>
       </c>
       <c r="S3">
-        <v>0.7905874834683262</v>
+        <v>0.09739659383197624</v>
       </c>
       <c r="T3">
-        <v>0.77665904395798</v>
+        <v>0.09483847785186462</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -652,25 +652,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.472578</v>
+        <v>4.095550333333333</v>
       </c>
       <c r="H4">
-        <v>4.417734</v>
+        <v>12.286651</v>
       </c>
       <c r="I4">
-        <v>0.8199988566099823</v>
+        <v>0.8970495598367377</v>
       </c>
       <c r="J4">
-        <v>0.8199988566099823</v>
+        <v>0.8970495598367377</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.025482</v>
+        <v>0.1289933333333333</v>
       </c>
       <c r="N4">
-        <v>0.076446</v>
+        <v>0.38698</v>
       </c>
       <c r="O4">
-        <v>0.0006204098302552262</v>
+        <v>0.05394679539474087</v>
       </c>
       <c r="P4">
-        <v>0.0009142193287344041</v>
+        <v>0.0787948288373843</v>
       </c>
       <c r="Q4">
-        <v>0.037524232596</v>
+        <v>0.528298689331111</v>
       </c>
       <c r="R4">
-        <v>0.337718093364</v>
+        <v>4.75468820398</v>
       </c>
       <c r="S4">
-        <v>0.0005087353514388786</v>
+        <v>0.04839294906345485</v>
       </c>
       <c r="T4">
-        <v>0.0007496588042529569</v>
+        <v>0.07068286652598667</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,179 +714,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G5">
-        <v>0.3232513333333334</v>
+        <v>4.095550333333333</v>
       </c>
       <c r="H5">
-        <v>0.9697540000000001</v>
+        <v>12.286651</v>
       </c>
       <c r="I5">
-        <v>0.1800011433900178</v>
+        <v>0.8970495598367377</v>
       </c>
       <c r="J5">
-        <v>0.1800011433900178</v>
+        <v>0.8970495598367377</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.447701666666666</v>
+        <v>2.262128</v>
       </c>
       <c r="N5">
-        <v>4.343105</v>
+        <v>4.524256</v>
       </c>
       <c r="O5">
-        <v>0.03524716840424121</v>
+        <v>0.9460532046052591</v>
       </c>
       <c r="P5">
-        <v>0.05193928443244949</v>
+        <v>0.9212051711626156</v>
       </c>
       <c r="Q5">
-        <v>0.4679714940188889</v>
+        <v>9.264659084442666</v>
       </c>
       <c r="R5">
-        <v>4.21174344617</v>
+        <v>55.587954506656</v>
       </c>
       <c r="S5">
-        <v>0.006344530614023926</v>
+        <v>0.8486566107732828</v>
       </c>
       <c r="T5">
-        <v>0.009349130584700258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.3232513333333334</v>
-      </c>
-      <c r="H6">
-        <v>0.9697540000000001</v>
-      </c>
-      <c r="I6">
-        <v>0.1800011433900178</v>
-      </c>
-      <c r="J6">
-        <v>0.1800011433900178</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>39.5996665</v>
-      </c>
-      <c r="N6">
-        <v>79.199333</v>
-      </c>
-      <c r="O6">
-        <v>0.9641324217655036</v>
-      </c>
-      <c r="P6">
-        <v>0.9471464962388161</v>
-      </c>
-      <c r="Q6">
-        <v>12.80064499568033</v>
-      </c>
-      <c r="R6">
-        <v>76.80386997408201</v>
-      </c>
-      <c r="S6">
-        <v>0.1735449382971775</v>
-      </c>
-      <c r="T6">
-        <v>0.1704874522808361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.3232513333333334</v>
-      </c>
-      <c r="H7">
-        <v>0.9697540000000001</v>
-      </c>
-      <c r="I7">
-        <v>0.1800011433900178</v>
-      </c>
-      <c r="J7">
-        <v>0.1800011433900178</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.025482</v>
-      </c>
-      <c r="N7">
-        <v>0.076446</v>
-      </c>
-      <c r="O7">
-        <v>0.0006204098302552262</v>
-      </c>
-      <c r="P7">
-        <v>0.0009142193287344041</v>
-      </c>
-      <c r="Q7">
-        <v>0.008237090476000002</v>
-      </c>
-      <c r="R7">
-        <v>0.07413381428400001</v>
-      </c>
-      <c r="S7">
-        <v>0.0001116744788163475</v>
-      </c>
-      <c r="T7">
-        <v>0.0001645605244814473</v>
+        <v>0.826366693310751</v>
       </c>
     </row>
   </sheetData>
